--- a/files/excelForm.xlsx
+++ b/files/excelForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE9C404-BF0F-4C87-96D5-3DFF49B4CA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BE8CFE-3A95-4F27-AEF2-EA7DC7F81FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,46 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>dlwodyd202</t>
-  </si>
-  <si>
-    <t>태그이름</t>
-  </si>
-  <si>
-    <t>단건</t>
-  </si>
-  <si>
-    <t>단</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>irir</t>
-  </si>
-  <si>
-    <t>wodyd</t>
-  </si>
-  <si>
-    <t>태그이름1</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>단건iyiyiy</t>
-  </si>
-  <si>
-    <t>fgfdgf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>팀원명</t>
+  </si>
+  <si>
+    <t>일정명</t>
+  </si>
+  <si>
+    <t>일정시작일</t>
+  </si>
+  <si>
+    <t>일정종료일</t>
+  </si>
+  <si>
+    <t>단건일정_1</t>
+  </si>
+  <si>
+    <t>단건일정_2</t>
+  </si>
+  <si>
+    <t>단건일정_3</t>
+  </si>
+  <si>
+    <t>단건일정_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +63,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,13 +94,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -410,68 +436,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>43984</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43985</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43983</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43984</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:9">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
